--- a/Matlab files/Lavender/lavender dimensions.xlsx
+++ b/Matlab files/Lavender/lavender dimensions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyubo\Desktop\Master final thesis\Masters-Final-Thesis\Matlab files\Lavender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1179FDFC-F0BD-4143-B923-8B4970D7C186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36387AAD-1B1E-4623-A0A6-E4237E287257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:K38"/>
+  <dimension ref="D3:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -542,6 +542,10 @@
       <c r="E6" s="2">
         <v>39.39</v>
       </c>
+      <c r="K6" s="5" t="str">
+        <f>_xlfn.TEXTJOIN(";",TRUE,E4:E38)</f>
+        <v>40.87;37.79;39.39;35.48;36.68;33.95;36.18;35.48;37.34;37.02;36.98;35.93;36.34;37.16;37.84;40.79;37.6;36.06;35.03;38.81;35.93;41.18;36.07;37.44;36.03;36.64;35.45;34.88;40.67;40.59;38.55;35.788;35.705;36.147;35.59</v>
+      </c>
     </row>
     <row r="7" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D7" s="2" t="s">
@@ -797,6 +801,12 @@
       </c>
       <c r="E38" s="3">
         <v>35.590000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E40" s="5">
+        <f>AVERAGE(E4:E38)</f>
+        <v>37.125142857142848</v>
       </c>
     </row>
   </sheetData>
